--- a/files/02_dictionaries/00_diccionarios_csv/faltantes/DiccionarioHogar - RECHM.xlsx
+++ b/files/02_dictionaries/00_diccionarios_csv/faltantes/DiccionarioHogar - RECHM.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_ESTUDIOS\02.CURSOS\04.MIT data science\00ProyectoONG\EndesAnalisisGit\endes-analisis\files\02_dictionaries\00_diccionarios_csv\faltantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Care\endes-analisis\files\02_dictionaries\00_diccionarios_csv\faltantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556004EC-10F3-4BAB-A939-A6A94534A154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Nº</t>
     </r>
@@ -37,10 +36,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>VARIABLE</t>
     </r>
@@ -49,10 +48,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>DESCRIPCIÓN DE LAS VARIABLES</t>
     </r>
@@ -61,10 +60,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>TIPO DE CARÁCTER</t>
     </r>
@@ -73,10 +72,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>LONGITUD</t>
     </r>
@@ -85,10 +84,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>RANGO DE VARIACIÓN</t>
     </r>
@@ -97,10 +96,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>VALORES</t>
     </r>
@@ -109,10 +108,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>DESCRIPCIÓN DE LAS ALTERNATIVAS</t>
     </r>
@@ -121,10 +120,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="5"/>
+        <sz val="8"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>OBS</t>
     </r>
@@ -132,10 +131,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ID1</t>
     </r>
@@ -143,10 +142,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Año</t>
     </r>
@@ -154,10 +153,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>N</t>
     </r>
@@ -165,10 +164,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>HHID</t>
     </r>
@@ -176,10 +175,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Identificación del caso</t>
     </r>
@@ -187,10 +186,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>AN</t>
     </r>
@@ -198,10 +197,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>000100101:317599999</t>
     </r>
@@ -209,10 +208,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>NRO_ORDEN_ID</t>
     </r>
@@ -220,10 +219,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Número de orden</t>
     </r>
@@ -231,10 +230,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1:10</t>
     </r>
@@ -242,10 +241,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>QH30M</t>
     </r>
@@ -253,10 +252,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sexo</t>
     </r>
@@ -264,10 +263,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1:2</t>
     </r>
@@ -275,10 +274,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Hombre</t>
     </r>
@@ -286,10 +285,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Mujer</t>
     </r>
@@ -297,10 +296,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>QH31M</t>
     </r>
@@ -308,10 +307,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>A qué edad murió</t>
     </r>
@@ -319,10 +318,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>0:110</t>
     </r>
@@ -330,10 +329,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>QH32M_M</t>
     </r>
@@ -341,10 +340,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>En qué  mes  murió</t>
     </r>
@@ -352,10 +351,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1:12</t>
     </r>
@@ -363,10 +362,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>QH32M_Y</t>
     </r>
@@ -374,10 +373,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>En qué  año  murió</t>
     </r>
@@ -385,10 +384,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>El rango depende del año de entrevista</t>
     </r>
@@ -396,10 +395,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>QH33M</t>
     </r>
@@ -407,10 +406,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Murió por alguna causa relacionada con el embarazo, parto, sobreparto o por alguna otra causa</t>
     </r>
@@ -418,10 +417,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1:4</t>
     </r>
@@ -429,10 +428,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Embarazo</t>
     </r>
@@ -440,10 +439,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Parto</t>
     </r>
@@ -451,10 +450,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sobreparto</t>
     </r>
@@ -462,24 +461,20 @@
   <si>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FF212A34"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
+        <sz val="8"/>
+        <color rgb="FF212A34"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Otra causa</t>
     </r>
-  </si>
-  <si>
-    <t>ENCUESTA DEMOGRÁFICA Y DE SALUD FAMILIAR ENDES
-DICCIONARIO DE VARIABLES CUESTIONARIO DEL HOGAR (RECHM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -488,37 +483,42 @@
     </font>
     <font>
       <b/>
-      <sz val="5"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF212A34"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="5"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212A34"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +528,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF212A34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -797,11 +809,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,153 +827,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +951,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>3048</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>364997</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9337675" cy="0"/>
     <xdr:sp macro="" textlink="">
@@ -1030,7 +1000,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1105,23 +1075,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1157,23 +1110,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1349,331 +1285,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
+    <col min="10" max="17" width="9.33203125" style="2"/>
+    <col min="18" max="18" width="24.83203125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+    <row r="1" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16" t="str">
+        <f>IF(A1="","",A1)</f>
+        <v>Nº</v>
+      </c>
+      <c r="K1" s="16" t="str">
+        <f t="shared" ref="K1:R2" si="0">IF(B1="","",B1)</f>
+        <v>VARIABLE</v>
+      </c>
+      <c r="L1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>DESCRIPCIÓN DE LAS VARIABLES</v>
+      </c>
+      <c r="M1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>TIPO DE CARÁCTER</v>
+      </c>
+      <c r="N1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>LONGITUD</v>
+      </c>
+      <c r="O1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>RANGO DE VARIACIÓN</v>
+      </c>
+      <c r="P1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>VALORES</v>
+      </c>
+      <c r="Q1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>DESCRIPCIÓN DE LAS ALTERNATIVAS</v>
+      </c>
+      <c r="R1" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>OBS</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="17">
+        <f>IF(A2="","",A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ID1</v>
+      </c>
+      <c r="L2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Año</v>
+      </c>
+      <c r="M2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="N2" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R2" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:R4" si="1">IF(A3="",IF(J2="","",J2),A3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>HHID</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Identificación del caso</v>
+      </c>
+      <c r="M3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>AN</v>
+      </c>
+      <c r="N3" s="18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>000100101:317599999</v>
+      </c>
+      <c r="P3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="17">
-        <v>15</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>NRO_ORDEN_ID</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Número de orden</v>
+      </c>
+      <c r="M4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1:10</v>
+      </c>
+      <c r="P4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5:J13" si="2">IF(A5="",IF(J4="","",J4),A5)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f t="shared" ref="K5:K13" si="3">IF(B5="",IF(K4="","",K4),B5)</f>
+        <v>QH30M</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f t="shared" ref="L5:L13" si="4">IF(C5="",IF(L4="","",L4),C5)</f>
+        <v>Sexo</v>
+      </c>
+      <c r="M5" s="18" t="str">
+        <f t="shared" ref="M5:M13" si="5">IF(D5="",IF(M4="","",M4),D5)</f>
+        <v>N</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" ref="N5:N13" si="6">IF(E5="",IF(N4="","",N4),E5)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="18" t="str">
+        <f t="shared" ref="O5:O13" si="7">IF(F5="",IF(O4="","",O4),F5)</f>
+        <v>1:2</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" ref="P5:P13" si="8">IF(G5="",IF(P4="","",P4),G5)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18" t="str">
+        <f t="shared" ref="Q5:Q13" si="9">IF(H5="",IF(Q4="","",Q4),H5)</f>
+        <v>Hombre</v>
+      </c>
+      <c r="R5" s="18" t="str">
+        <f t="shared" ref="R5:R9" si="10">IF(I5="",IF(R4="","",R4),I5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH30M</v>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Sexo</v>
+      </c>
+      <c r="M6" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1:2</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Mujer</v>
+      </c>
+      <c r="R6" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH31M</v>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>A qué edad murió</v>
+      </c>
+      <c r="M7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O7" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>0:110</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH32M_M</v>
+      </c>
+      <c r="L8" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>En qué  mes  murió</v>
+      </c>
+      <c r="M8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O8" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1:12</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH32M_Y</v>
+      </c>
+      <c r="L9" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>En qué  año  murió</v>
+      </c>
+      <c r="M9" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>El rango depende del año de entrevista</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K10" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH33M</v>
+      </c>
+      <c r="L10" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Murió por alguna causa relacionada con el embarazo, parto, sobreparto o por alguna otra causa</v>
+      </c>
+      <c r="M10" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1:4</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Embarazo</v>
+      </c>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH33M</v>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Murió por alguna causa relacionada con el embarazo, parto, sobreparto o por alguna otra causa</v>
+      </c>
+      <c r="M11" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1:4</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Parto</v>
+      </c>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH33M</v>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Murió por alguna causa relacionada con el embarazo, parto, sobreparto o por alguna otra causa</v>
+      </c>
+      <c r="M12" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1:4</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q12" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Sobreparto</v>
+      </c>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="H13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>QH33M</v>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Murió por alguna causa relacionada con el embarazo, parto, sobreparto o por alguna otra causa</v>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>8</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="42">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="20">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="22">
+      <c r="O13" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1:4</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="47"/>
+      <c r="Q13" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Otra causa</v>
+      </c>
+      <c r="R13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
+  <mergeCells count="11">
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
